--- a/electronics/hapy2.5/fabrication/PE_BrainRisebox.xlsx
+++ b/electronics/hapy2.5/fabrication/PE_BrainRisebox.xlsx
@@ -448,7 +448,7 @@
     <t>Resistance CMS 143K 1% 0603</t>
   </si>
   <si>
-    <t>CRCW0603143KFKEA</t>
+    <t>ERJ3EKF1433V</t>
   </si>
   <si>
     <t>http://fr.farnell.com/panasonic-electronic-components/erj3ekf1433v/resist-couche-epaisse-143k-100mw/dp/2303238</t>
@@ -929,7 +929,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -952,13 +951,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1055,22 +1052,22 @@
   </sheetPr>
   <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I52" activeCellId="0" sqref="I52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="I24" colorId="64" zoomScale="100" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.12244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.36224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.0969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.2908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.47448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="172.122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="24.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.00510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.35714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="169.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="23.7959183673469"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +2038,7 @@
         <v>182</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>183</v>
@@ -2705,7 +2702,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18877551020408"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2731,7 +2728,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18877551020408"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
